--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +88,13 @@
     <t>Gfra2</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.04003188991236</v>
+        <v>0.13541</v>
       </c>
       <c r="H2">
-        <v>1.04003188991236</v>
+        <v>0.40623</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1064658135528677</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1064658135528677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.26509584577134</v>
+        <v>0.2905513333333333</v>
       </c>
       <c r="N2">
-        <v>5.26509584577134</v>
+        <v>0.8716539999999999</v>
       </c>
       <c r="O2">
-        <v>0.6609386425417567</v>
+        <v>0.0335702619489018</v>
       </c>
       <c r="P2">
-        <v>0.6609386425417567</v>
+        <v>0.03357026194890179</v>
       </c>
       <c r="Q2">
-        <v>5.475867583047282</v>
+        <v>0.03934355604666667</v>
       </c>
       <c r="R2">
-        <v>5.475867583047282</v>
+        <v>0.3540920044199999</v>
       </c>
       <c r="S2">
-        <v>0.6609386425417567</v>
+        <v>0.003574085249572708</v>
       </c>
       <c r="T2">
-        <v>0.6609386425417567</v>
+        <v>0.003574085249572707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -590,49 +599,545 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.04003188991236</v>
+        <v>0.13541</v>
       </c>
       <c r="H3">
-        <v>1.04003188991236</v>
+        <v>0.40623</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1064658135528677</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1064658135528677</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.70099284519017</v>
+        <v>5.332302333333334</v>
       </c>
       <c r="N3">
-        <v>2.70099284519017</v>
+        <v>15.996907</v>
       </c>
       <c r="O3">
-        <v>0.3390613574582433</v>
+        <v>0.6160934939347733</v>
       </c>
       <c r="P3">
-        <v>0.3390613574582433</v>
+        <v>0.6160934939347732</v>
       </c>
       <c r="Q3">
-        <v>2.809118693422895</v>
+        <v>0.7220470589566668</v>
       </c>
       <c r="R3">
-        <v>2.809118693422895</v>
+        <v>6.498423530609999</v>
       </c>
       <c r="S3">
-        <v>0.3390613574582433</v>
+        <v>0.0655928950563944</v>
       </c>
       <c r="T3">
-        <v>0.3390613574582433</v>
+        <v>0.06559289505639439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.13541</v>
+      </c>
+      <c r="H4">
+        <v>0.40623</v>
+      </c>
+      <c r="I4">
+        <v>0.1064658135528677</v>
+      </c>
+      <c r="J4">
+        <v>0.1064658135528677</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.08639533333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.259186</v>
+      </c>
+      <c r="O4">
+        <v>0.009982105185644834</v>
+      </c>
+      <c r="P4">
+        <v>0.009982105185644834</v>
+      </c>
+      <c r="Q4">
+        <v>0.01169879208666667</v>
+      </c>
+      <c r="R4">
+        <v>0.10528912878</v>
+      </c>
+      <c r="S4">
+        <v>0.001062752949559977</v>
+      </c>
+      <c r="T4">
+        <v>0.001062752949559977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.13541</v>
+      </c>
+      <c r="H5">
+        <v>0.40623</v>
+      </c>
+      <c r="I5">
+        <v>0.1064658135528677</v>
+      </c>
+      <c r="J5">
+        <v>0.1064658135528677</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.02270233333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.068107</v>
+      </c>
+      <c r="O5">
+        <v>0.002623024537894457</v>
+      </c>
+      <c r="P5">
+        <v>0.002623024537894457</v>
+      </c>
+      <c r="Q5">
+        <v>0.003074122956666667</v>
+      </c>
+      <c r="R5">
+        <v>0.02766710661</v>
+      </c>
+      <c r="S5">
+        <v>0.0002792624413960682</v>
+      </c>
+      <c r="T5">
+        <v>0.0002792624413960681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.13541</v>
+      </c>
+      <c r="H6">
+        <v>0.40623</v>
+      </c>
+      <c r="I6">
+        <v>0.1064658135528677</v>
+      </c>
+      <c r="J6">
+        <v>0.1064658135528677</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.923070000000001</v>
+      </c>
+      <c r="N6">
+        <v>8.769210000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.3377311143927857</v>
+      </c>
+      <c r="P6">
+        <v>0.3377311143927856</v>
+      </c>
+      <c r="Q6">
+        <v>0.3958129087000001</v>
+      </c>
+      <c r="R6">
+        <v>3.5623161783</v>
+      </c>
+      <c r="S6">
+        <v>0.03595681785594455</v>
+      </c>
+      <c r="T6">
+        <v>0.03595681785594455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.136453666666667</v>
+      </c>
+      <c r="H7">
+        <v>3.409361</v>
+      </c>
+      <c r="I7">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="J7">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2905513333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.8716539999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.0335702619489018</v>
+      </c>
+      <c r="P7">
+        <v>0.03357026194890179</v>
+      </c>
+      <c r="Q7">
+        <v>0.3301981281215556</v>
+      </c>
+      <c r="R7">
+        <v>2.971783153094</v>
+      </c>
+      <c r="S7">
+        <v>0.02999617669932909</v>
+      </c>
+      <c r="T7">
+        <v>0.02999617669932909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.136453666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.409361</v>
+      </c>
+      <c r="I8">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="J8">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.332302333333334</v>
+      </c>
+      <c r="N8">
+        <v>15.996907</v>
+      </c>
+      <c r="O8">
+        <v>0.6160934939347733</v>
+      </c>
+      <c r="P8">
+        <v>0.6160934939347732</v>
+      </c>
+      <c r="Q8">
+        <v>6.059914538491889</v>
+      </c>
+      <c r="R8">
+        <v>54.539230846427</v>
+      </c>
+      <c r="S8">
+        <v>0.5505005988783789</v>
+      </c>
+      <c r="T8">
+        <v>0.5505005988783789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.136453666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.409361</v>
+      </c>
+      <c r="I9">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="J9">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.08639533333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.259186</v>
+      </c>
+      <c r="O9">
+        <v>0.009982105185644834</v>
+      </c>
+      <c r="P9">
+        <v>0.009982105185644834</v>
+      </c>
+      <c r="Q9">
+        <v>0.09818429334955556</v>
+      </c>
+      <c r="R9">
+        <v>0.8836586401460002</v>
+      </c>
+      <c r="S9">
+        <v>0.008919352236084858</v>
+      </c>
+      <c r="T9">
+        <v>0.008919352236084858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.136453666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.409361</v>
+      </c>
+      <c r="I10">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="J10">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.02270233333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.068107</v>
+      </c>
+      <c r="O10">
+        <v>0.002623024537894457</v>
+      </c>
+      <c r="P10">
+        <v>0.002623024537894457</v>
+      </c>
+      <c r="Q10">
+        <v>0.02580014995855556</v>
+      </c>
+      <c r="R10">
+        <v>0.232201349627</v>
+      </c>
+      <c r="S10">
+        <v>0.002343762096498389</v>
+      </c>
+      <c r="T10">
+        <v>0.002343762096498389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.136453666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.409361</v>
+      </c>
+      <c r="I11">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="J11">
+        <v>0.8935341864471323</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.923070000000001</v>
+      </c>
+      <c r="N11">
+        <v>8.769210000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3377311143927857</v>
+      </c>
+      <c r="P11">
+        <v>0.3377311143927856</v>
+      </c>
+      <c r="Q11">
+        <v>3.321933619423334</v>
+      </c>
+      <c r="R11">
+        <v>29.89740257481001</v>
+      </c>
+      <c r="S11">
+        <v>0.3017742965368411</v>
+      </c>
+      <c r="T11">
+        <v>0.3017742965368411</v>
       </c>
     </row>
   </sheetData>
